--- a/documents/time-records/Ager_Clemens_csab8299.xlsx
+++ b/documents/time-records/Ager_Clemens_csab8299.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cle/Code/Info/Software Engineering/Project/worktree/time-records/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cle/Code/Info/Software Engineering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A34DDE-C8D5-5F4F-AD97-4C7B7DAD34CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B4FA89-8198-D542-9152-EC7D6A86BCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15620" xr2:uid="{6E71D473-8E99-584F-9CE7-0EC5B1B78532}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -163,6 +163,27 @@
   </si>
   <si>
     <t xml:space="preserve">Game editor </t>
+  </si>
+  <si>
+    <t>Game Flow</t>
+  </si>
+  <si>
+    <t>Orga</t>
+  </si>
+  <si>
+    <t>Fixes</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Nachforschung Mängel</t>
+  </si>
+  <si>
+    <t>Bericht</t>
+  </si>
+  <si>
+    <t>Cube Wechsel</t>
   </si>
 </sst>
 </file>
@@ -605,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F855F84B-A166-7442-8B83-EBB2C6A67214}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -639,7 +660,7 @@
       </c>
       <c r="F1" s="13">
         <f>SUM(B:B) * 24</f>
-        <v>75.500000000000014</v>
+        <v>118.99999999999997</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>32</v>
@@ -1175,7 +1196,7 @@
         <v>44311</v>
       </c>
       <c r="B39" s="7">
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -1185,104 +1206,354 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="7"/>
-      <c r="D40" s="3"/>
+      <c r="A40" s="2">
+        <v>44312</v>
+      </c>
+      <c r="B40" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="7"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B41" s="7">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="7"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="2">
+        <v>44313</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="7"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B43" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="B44" s="7"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="7"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="2">
+        <v>44317</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="B46" s="7"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="2">
+        <v>44318</v>
+      </c>
+      <c r="B46" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" s="7"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="2">
+        <v>44320</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="7"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="7"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="7"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="7"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="7"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="7"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="7"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="7"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="7"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="7"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="7"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="7"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="7"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="7"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="7"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="7"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="7"/>
-      <c r="D64" s="3"/>
+      <c r="A48" s="2">
+        <v>44321</v>
+      </c>
+      <c r="B48" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
+        <v>44324</v>
+      </c>
+      <c r="B49" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
+        <v>44327</v>
+      </c>
+      <c r="B50" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>44327</v>
+      </c>
+      <c r="B51" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>44329</v>
+      </c>
+      <c r="B53" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
+        <v>44331</v>
+      </c>
+      <c r="B54" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
+        <v>44333</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>44334</v>
+      </c>
+      <c r="B56" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>44343</v>
+      </c>
+      <c r="B57" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>44345</v>
+      </c>
+      <c r="B58" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>44347</v>
+      </c>
+      <c r="B59" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>44352</v>
+      </c>
+      <c r="B60" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <v>44358</v>
+      </c>
+      <c r="B61" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
+        <v>44359</v>
+      </c>
+      <c r="B62" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B63" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
+        <v>44364</v>
+      </c>
+      <c r="B64" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" s="7"/>
@@ -5028,9 +5299,17 @@
       <c r="B1000" s="7"/>
       <c r="D1000" s="3"/>
     </row>
+    <row r="1001" spans="2:4">
+      <c r="B1001" s="7"/>
+      <c r="D1001" s="3"/>
+    </row>
+    <row r="1002" spans="2:4">
+      <c r="B1002" s="7"/>
+      <c r="D1002" s="3"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1000">
-    <sortCondition ref="A2:A1000"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1002">
+    <sortCondition ref="A2:A1002"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5041,7 +5320,7 @@
           <x14:formula1>
             <xm:f>Tätigkeiten!$B$2:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C2 C9:C1000</xm:sqref>
+          <xm:sqref>C2 C9:C1002</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
